--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.87795824038</v>
+        <v>114.155417</v>
       </c>
       <c r="N2">
-        <v>40.87795824038</v>
+        <v>342.466251</v>
       </c>
       <c r="O2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="P2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="Q2">
-        <v>170.9694048017011</v>
+        <v>488.3730459434083</v>
       </c>
       <c r="R2">
-        <v>170.9694048017011</v>
+        <v>4395.357413490675</v>
       </c>
       <c r="S2">
-        <v>0.4231184524401052</v>
+        <v>0.6604918103946938</v>
       </c>
       <c r="T2">
-        <v>0.4231184524401052</v>
+        <v>0.6604918103946938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.9153102435356</v>
+        <v>35.924535</v>
       </c>
       <c r="N3">
-        <v>35.9153102435356</v>
+        <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="P3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="Q3">
-        <v>150.213451941445</v>
+        <v>153.690250039125</v>
       </c>
       <c r="R3">
-        <v>150.213451941445</v>
+        <v>1383.212250352125</v>
       </c>
       <c r="S3">
-        <v>0.371751211246645</v>
+        <v>0.2078557617615075</v>
       </c>
       <c r="T3">
-        <v>0.371751211246645</v>
+        <v>0.2078557617615075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H4">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8286199930255</v>
+        <v>16.93339666666667</v>
       </c>
       <c r="N4">
-        <v>16.8286199930255</v>
+        <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="P4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="Q4">
-        <v>70.3846098898219</v>
+        <v>72.44346983786112</v>
       </c>
       <c r="R4">
-        <v>70.3846098898219</v>
+        <v>651.9912285407499</v>
       </c>
       <c r="S4">
-        <v>0.1741892196836241</v>
+        <v>0.09797493727781785</v>
       </c>
       <c r="T4">
-        <v>0.1741892196836241</v>
+        <v>0.09797493727781784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H5">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.87795824038</v>
+        <v>114.155417</v>
       </c>
       <c r="N5">
-        <v>40.87795824038</v>
+        <v>342.466251</v>
       </c>
       <c r="O5">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="P5">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="Q5">
-        <v>5.458888396614935</v>
+        <v>17.02038241567167</v>
       </c>
       <c r="R5">
-        <v>5.458888396614935</v>
+        <v>153.183441741045</v>
       </c>
       <c r="S5">
-        <v>0.01350976458681558</v>
+        <v>0.02301892638980668</v>
       </c>
       <c r="T5">
-        <v>0.01350976458681558</v>
+        <v>0.02301892638980668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H6">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.9153102435356</v>
+        <v>35.924535</v>
       </c>
       <c r="N6">
-        <v>35.9153102435356</v>
+        <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="P6">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="Q6">
-        <v>4.79617081646687</v>
+        <v>5.356288294275</v>
       </c>
       <c r="R6">
-        <v>4.79617081646687</v>
+        <v>48.206594648475</v>
       </c>
       <c r="S6">
-        <v>0.01186965805873629</v>
+        <v>0.007244020901373727</v>
       </c>
       <c r="T6">
-        <v>0.01186965805873629</v>
+        <v>0.007244020901373727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H7">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8286199930255</v>
+        <v>16.93339666666667</v>
       </c>
       <c r="N7">
-        <v>16.8286199930255</v>
+        <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="P7">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="Q7">
-        <v>2.247312790691745</v>
+        <v>2.524741220672222</v>
       </c>
       <c r="R7">
-        <v>2.247312790691745</v>
+        <v>22.72267098605</v>
       </c>
       <c r="S7">
-        <v>0.005561693984074069</v>
+        <v>0.00341454327480051</v>
       </c>
       <c r="T7">
-        <v>0.005561693984074069</v>
+        <v>0.00341454327480051</v>
       </c>
     </row>
   </sheetData>
